--- a/output_test/model_unistroi_LogisticRegression2.xlsx
+++ b/output_test/model_unistroi_LogisticRegression2.xlsx
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Лестничные марши и площадки железобетонные Материалы</t>
+          <t>Арматура стальная Материалы</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Кирпич</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Фасадная Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3728,11 +3728,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Фасадная Материалы</t>
+          <t>Пенополистирол Материалы</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Лестничные марши и площадки железобетонные Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Пенополистирол Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Пенополистирол Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Лестничные марши и площадки железобетонные Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Лестничные марши и площадки железобетонные Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Пенополистирол Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Водоснабжение и Канализация</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Водоснабжение и Канализация</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Фасадная Материалы</t>
+          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
         </is>
       </c>
       <c r="D239" t="n">
